--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yujian1904\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8889A116-77F4-4FD4-BA8E-A60321CBC86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EB87B-B32E-463E-86BF-94CBC17AE597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,6 +315,21 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,21 +343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +636,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -657,30 +657,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="G1" s="6" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -707,19 +707,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="14">
         <f>L3</f>
-        <v>752.82999999999993</v>
+        <v>825.78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -733,11 +733,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>752.82999999999993</v>
+        <v>825.78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -746,9 +746,9 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="10"/>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
+      <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H4" s="2">
@@ -758,24 +758,24 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>246.56</v>
+        <v>319.51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="14">
         <v>1440</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="H5" s="2">
@@ -789,16 +789,16 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="10"/>
-      <c r="G6" s="15" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
+      <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
       <c r="H6" s="2">
@@ -806,20 +806,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="14">
         <v>2040</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="2">
@@ -827,16 +827,16 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="15" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="H8" s="2">
@@ -844,20 +844,20 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="12"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="14">
         <v>2320</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="6" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="2">
@@ -865,17 +865,17 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="15" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
+      <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H10" s="2">
@@ -883,10 +883,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
         <v>7740.39</v>
@@ -896,9 +896,9 @@
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>6552.83</v>
-      </c>
-      <c r="G11" s="15" t="s">
+        <v>6625.78</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="2">
@@ -906,17 +906,17 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>1187.5600000000004</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="G12" s="15" t="s">
+        <v>1114.6100000000006</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="2">
@@ -940,7 +940,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
       <c r="H15" s="2">
@@ -957,6 +957,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -968,16 +978,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA5EB87B-B32E-463E-86BF-94CBC17AE597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580951B-6296-4D1C-84CE-9A1DE494DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,6 +318,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -328,21 +343,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -636,7 +636,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -657,30 +657,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -707,19 +707,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>L3</f>
-        <v>825.78</v>
+        <v>875.78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -733,11 +733,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>825.78</v>
+        <v>875.78</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -746,8 +746,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -758,21 +758,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>319.51</v>
+        <v>369.51</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -789,15 +789,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -806,17 +806,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -827,15 +827,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -844,17 +844,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -865,16 +865,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -883,10 +883,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
         <v>7740.39</v>
@@ -896,7 +896,7 @@
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>6625.78</v>
+        <v>6675.78</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -906,16 +906,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>1114.6100000000006</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>1064.6100000000006</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -957,16 +957,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -978,6 +968,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEWorkSpace\CLion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5580951B-6296-4D1C-84CE-9A1DE494DBDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26837E-2194-449E-85B0-B38A82D522B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>垫付病案室图书款</t>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -318,6 +326,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,18 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -657,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -707,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <f>L3</f>
-        <v>875.78</v>
+        <v>1075.57</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -733,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>875.78</v>
+        <v>1075.57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -746,8 +754,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -758,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>369.51</v>
+        <v>569.29999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="14">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -789,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -806,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -827,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -844,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -865,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -883,20 +891,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7740.39</v>
+        <v>7940.39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>6675.78</v>
+        <v>6875.57</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -906,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>1064.6100000000006</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>1064.8200000000006</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -940,6 +948,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2">
+        <v>34</v>
+      </c>
       <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
@@ -948,6 +962,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.6</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
@@ -957,6 +977,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -968,16 +998,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEWorkSpace\CLion\CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26837E-2194-449E-85B0-B38A82D522B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C0B5D9-94A5-42A0-9CD7-C505E49CEB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,6 +326,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,21 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:C16"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>L3</f>
-        <v>1075.57</v>
+        <v>1349.47</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -741,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1075.57</v>
+        <v>1349.47</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -754,8 +754,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>569.29999999999995</v>
+        <v>843.2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
         <v>200</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,10 +891,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
         <v>7940.39</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>6875.57</v>
+        <v>7149.47</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>1064.8200000000006</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>790.92000000000007</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -977,16 +977,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -998,6 +988,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C0B5D9-94A5-42A0-9CD7-C505E49CEB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A3EDF-34B8-4DBB-8E5A-56B36E20D381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,6 +326,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,18 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <f>L3</f>
-        <v>1349.47</v>
+        <v>1415.46</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -741,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1349.47</v>
+        <v>1415.46</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -754,8 +754,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>843.2</v>
+        <v>909.19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="14">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>200</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,10 +891,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
         <v>7940.39</v>
@@ -904,7 +904,7 @@
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7149.47</v>
+        <v>7215.46</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>790.92000000000007</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>724.93000000000029</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -977,6 +977,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -988,16 +998,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623A3EDF-34B8-4DBB-8E5A-56B36E20D381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C64571-C293-4C76-A7D9-64506FD24A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,6 +326,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,21 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4">
         <v>39</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>L3</f>
-        <v>1415.46</v>
+        <v>1461.13</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -741,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1415.46</v>
+        <v>1461.13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -754,8 +754,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>909.19</v>
+        <v>954.86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
-        <v>200</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7940.39</v>
+        <v>7934.39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7215.46</v>
+        <v>7261.13</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>724.93000000000029</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>673.26000000000022</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -977,16 +977,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -998,6 +988,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEWorkSpace\CLion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C64571-C293-4C76-A7D9-64506FD24A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CDF16-C349-4B97-9F00-EDA0EE5E57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,6 +326,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,18 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4">
-        <v>39</v>
-      </c>
-      <c r="D3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <f>L3</f>
-        <v>1461.13</v>
+        <v>1559.92</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -741,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1461.13</v>
+        <v>1559.92</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -754,8 +754,8 @@
       <c r="C4" s="4">
         <v>555.15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>954.86</v>
+        <v>1053.6500000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="14">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
-        <v>194</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7146.2400000000007</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7934.39</v>
+        <v>7890.39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7261.13</v>
+        <v>7359.92</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>673.26000000000022</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>530.47000000000025</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -977,6 +977,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -988,16 +998,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEWorkSpace\CLion\CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3CDF16-C349-4B97-9F00-EDA0EE5E57FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF964A-AE8C-4F76-B988-CE64982E6379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,6 +326,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -336,21 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,47 +715,47 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>L3</f>
-        <v>1559.92</v>
+        <v>1587.5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(H4:H100)</f>
-        <v>7146.2400000000007</v>
+        <v>7189.8400000000011</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1559.92</v>
+        <v>1587.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>555.15</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>1053.6500000000001</v>
+        <v>1081.23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+        <v>200</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
-        <v>189</v>
-      </c>
-      <c r="D9" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>H3</f>
-        <v>7146.2400000000007</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+        <v>7189.8400000000011</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7890.39</v>
+        <v>7389.8400000000011</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7359.92</v>
+        <v>7387.5</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>530.47000000000025</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>2.340000000001055</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -948,12 +948,6 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2">
-        <v>34</v>
-      </c>
       <c r="G15" s="6" t="s">
         <v>36</v>
       </c>
@@ -962,12 +956,6 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="2">
-        <v>9.6</v>
-      </c>
       <c r="G16" s="2" t="s">
         <v>37</v>
       </c>
@@ -975,18 +963,24 @@
         <v>178.29</v>
       </c>
     </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="2">
+        <v>9.6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -998,6 +992,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8AF964A-AE8C-4F76-B988-CE64982E6379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509CDEF-D765-4206-8ACB-78D57A437416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -326,6 +326,18 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,18 +351,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -644,7 +644,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -665,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="G1" s="7" t="s">
+      <c r="E1" s="7"/>
+      <c r="G1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="7"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="10"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -715,19 +715,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <f>L3</f>
-        <v>1587.5</v>
+        <v>1636</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -741,11 +741,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1587.5</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -754,8 +754,8 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -766,21 +766,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>1081.23</v>
+        <v>1129.73</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="14">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -797,15 +797,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="11"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="15"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -814,17 +814,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -835,15 +835,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
-        <v>200</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="11"/>
+        <v>294.56</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="15"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -852,17 +852,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="14">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -873,16 +873,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7189.8400000000011</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="15"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -891,20 +891,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7389.8400000000011</v>
+        <v>7484.4000000000015</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7387.5</v>
+        <v>7436</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -914,16 +914,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>2.340000000001055</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+        <v>48.400000000001455</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -981,6 +981,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -992,16 +1002,6 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6509CDEF-D765-4206-8ACB-78D57A437416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6650F4-AA7D-435A-93C8-C0985650472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,23 +162,24 @@
     <t>垫付老干部科慰问品</t>
   </si>
   <si>
+    <t>垫付办公室市领导观摩用食品</t>
+  </si>
+  <si>
+    <t>垫付老干部科春节慰问品</t>
+  </si>
+  <si>
+    <t>垫付病案室图书款</t>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔芯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>垫付产科打印纸</t>
-  </si>
-  <si>
-    <t>垫付办公室市领导观摩用食品</t>
-  </si>
-  <si>
-    <t>垫付老干部科春节慰问品</t>
-  </si>
-  <si>
-    <t>垫付病案室图书款</t>
-  </si>
-  <si>
-    <t>鼠标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔芯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -641,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -727,21 +728,21 @@
       </c>
       <c r="E3" s="14">
         <f>L3</f>
-        <v>1636</v>
+        <v>1882.1299999999999</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="2">
         <f>SUM(H4:H100)</f>
-        <v>7189.8400000000011</v>
+        <v>7589.8400000000011</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1636</v>
+        <v>1882.1299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -766,7 +767,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>1129.73</v>
+        <v>1375.86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -840,7 +841,7 @@
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="4">
-        <v>294.56</v>
+        <v>0</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="15"/>
@@ -879,7 +880,7 @@
       <c r="B10" s="8"/>
       <c r="C10" s="4">
         <f>H3</f>
-        <v>7189.8400000000011</v>
+        <v>7589.8400000000011</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="15"/>
@@ -897,14 +898,14 @@
       <c r="B11" s="8"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7484.4000000000015</v>
+        <v>7589.8400000000011</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7436</v>
+        <v>7682.13</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -920,7 +921,7 @@
       <c r="B12" s="8"/>
       <c r="C12" s="9">
         <f>C11-E11</f>
-        <v>48.400000000001455</v>
+        <v>-92.289999999999054</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -932,51 +933,59 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G13" s="2" t="s">
-        <v>34</v>
+      <c r="G13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="2">
-        <v>80</v>
+        <v>1071.5999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G14" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="2">
-        <v>222.75</v>
+        <v>178.29</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="G15" s="6" t="s">
-        <v>36</v>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="H15" s="2">
-        <v>1071.5999999999999</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16" s="2">
-        <v>178.29</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="17" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="2">
-        <v>34</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="2">
+        <v>222.75</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
+      <c r="G19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H18" s="2">
-        <v>9.6</v>
+      <c r="H19" s="2">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6650F4-AA7D-435A-93C8-C0985650472C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C83C7-F16B-4873-84D8-1ADCB141691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -327,6 +327,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,21 +352,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -645,7 +645,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -666,30 +666,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="G1" s="11" t="s">
+      <c r="E1" s="12"/>
+      <c r="G1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="11"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
@@ -716,19 +716,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="4">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="10">
         <f>L3</f>
-        <v>1882.1299999999999</v>
+        <v>2320.1999999999998</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -742,11 +742,11 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>1882.1299999999999</v>
+        <v>2320.1999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -755,8 +755,8 @@
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
       <c r="G4" s="6" t="s">
         <v>26</v>
       </c>
@@ -767,21 +767,21 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>1375.86</v>
+        <v>1775.55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="10">
         <v>1440</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -794,19 +794,19 @@
         <v>15</v>
       </c>
       <c r="L5" s="2">
-        <v>506.27</v>
+        <v>544.65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="11"/>
       <c r="G6" s="6" t="s">
         <v>28</v>
       </c>
@@ -815,17 +815,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="10">
         <v>2040</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -836,15 +836,15 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="11"/>
       <c r="G8" s="6" t="s">
         <v>30</v>
       </c>
@@ -853,17 +853,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <v>2320</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -874,16 +874,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="4">
         <f>H3</f>
         <v>7589.8400000000011</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="11"/>
       <c r="G10" s="6" t="s">
         <v>32</v>
       </c>
@@ -892,10 +892,10 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
         <v>7589.8400000000011</v>
@@ -905,7 +905,7 @@
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>7682.13</v>
+        <v>8120.2</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -915,16 +915,16 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>-92.289999999999054</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+        <v>-530.35999999999876</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="G12" s="6" t="s">
         <v>33</v>
       </c>
@@ -990,16 +990,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A11:B11"/>
@@ -1011,6 +1001,16 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/余额.xlsx
+++ b/余额.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YuJian\IDEWorkSpace\Clion\CPP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEWorkSpace\CLion\CPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{660C83C7-F16B-4873-84D8-1ADCB141691B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B3112B-CF01-4758-82A6-154B99379579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>账户</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,22 @@
   </si>
   <si>
     <t>垫付产科打印纸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月预算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,15 +660,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="5.875" style="1" customWidth="1"/>
@@ -728,7 +744,7 @@
       </c>
       <c r="E3" s="10">
         <f>L3</f>
-        <v>2320.1999999999998</v>
+        <v>682.4</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>24</v>
@@ -742,7 +758,7 @@
       </c>
       <c r="L3" s="2">
         <f>SUM(L4:L65)</f>
-        <v>2320.1999999999998</v>
+        <v>682.4</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -753,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="4">
-        <v>0</v>
+        <v>430.2</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="11"/>
@@ -767,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="L4" s="2">
-        <v>1775.55</v>
+        <v>497.42</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -794,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="L5" s="2">
-        <v>544.65</v>
+        <v>184.98</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -898,14 +914,14 @@
       <c r="B11" s="13"/>
       <c r="C11" s="4">
         <f>SUM(C3:C10)</f>
-        <v>7589.8400000000011</v>
+        <v>8020.0400000000009</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4">
         <f>SUM(E3:E10)</f>
-        <v>8120.2</v>
+        <v>6482.4</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>33</v>
@@ -921,7 +937,7 @@
       <c r="B12" s="13"/>
       <c r="C12" s="14">
         <f>C11-E11</f>
-        <v>-530.35999999999876</v>
+        <v>1537.6400000000012</v>
       </c>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
@@ -957,6 +973,13 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
       <c r="G16" s="2" t="s">
         <v>38</v>
       </c>
@@ -964,15 +987,24 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="17" spans="7:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1">
+        <v>150</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="H17" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="7:8" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>34</v>
       </c>
@@ -980,27 +1012,20 @@
         <v>222.75</v>
       </c>
     </row>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.2">
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="2">
-        <v>400</v>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
+  <mergeCells count="22">
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="D5:D6"/>
@@ -1011,6 +1036,11 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
